--- a/Ver4/09/野外炊飯.xlsx
+++ b/Ver4/09/野外炊飯.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\Desktop\企画書2019\09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AABE4C-EE40-4868-BBA5-9C846248C78A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2278DA4-0947-4604-BA30-89FC8526DE3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8690" yWindow="410" windowWidth="11030" windowHeight="9990" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
+    <workbookView xWindow="8170" yWindow="230" windowWidth="11030" windowHeight="9990" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="55">
   <si>
     <t>班</t>
     <rPh sb="0" eb="1">
@@ -212,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,38 +238,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
-      <family val="3"/>
+      <name val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -339,19 +325,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,7 +657,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -699,13 +685,13 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -713,13 +699,13 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -727,13 +713,13 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -741,13 +727,13 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -755,13 +741,13 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -769,13 +755,13 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -783,13 +769,13 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -797,10 +783,11 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -808,13 +795,13 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -822,13 +809,13 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -836,13 +823,13 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -850,13 +837,13 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -864,25 +851,25 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -890,11 +877,11 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -902,57 +889,57 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Ver4/09/野外炊飯.xlsx
+++ b/Ver4/09/野外炊飯.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2278DA4-0947-4604-BA30-89FC8526DE3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1D4405-0A5B-476A-ACEC-D4EA651EE313}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8170" yWindow="230" windowWidth="11030" windowHeight="9990" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
+    <workbookView xWindow="8580" yWindow="480" windowWidth="8380" windowHeight="9990" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>班</t>
     <rPh sb="0" eb="1">
@@ -207,12 +207,35 @@
   <si>
     <t>以西　恭一郎</t>
   </si>
+  <si>
+    <t>原田 崇司先生</t>
+  </si>
+  <si>
+    <t>岩村 聡先生</t>
+  </si>
+  <si>
+    <t>教務</t>
+    <rPh sb="0" eb="2">
+      <t>キョウム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>村上和子先生</t>
+    <rPh sb="0" eb="2">
+      <t>ムラカミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カズコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +278,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HGS創英ﾌﾟﾚｾﾞﾝｽEB"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -315,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,6 +369,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,7 +690,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -783,7 +816,9 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
@@ -852,7 +887,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>49</v>
@@ -877,7 +912,9 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
@@ -925,7 +962,9 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
@@ -935,7 +974,9 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>

--- a/Ver4/09/野外炊飯.xlsx
+++ b/Ver4/09/野外炊飯.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1D4405-0A5B-476A-ACEC-D4EA651EE313}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{3C1D4405-0A5B-476A-ACEC-D4EA651EE313}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{F3195712-FE7A-43E4-83FF-3058902CB0DB}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="480" windowWidth="8380" windowHeight="9990" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
+    <workbookView xWindow="8360" yWindow="240" windowWidth="8380" windowHeight="9990" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>班</t>
     <rPh sb="0" eb="1">
@@ -85,9 +85,6 @@
     <t>鵜川 始陽先生</t>
   </si>
   <si>
-    <t>情報事務員</t>
-  </si>
-  <si>
     <t>門田 宏先生</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>青山　陽樹</t>
   </si>
   <si>
-    <t>北村　陽典</t>
-  </si>
-  <si>
     <t>中島　伶也</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>日下　泉</t>
   </si>
   <si>
-    <t>真壁　巧</t>
-  </si>
-  <si>
     <t>別役　志朗</t>
   </si>
   <si>
@@ -208,17 +199,7 @@
     <t>以西　恭一郎</t>
   </si>
   <si>
-    <t>原田 崇司先生</t>
-  </si>
-  <si>
     <t>岩村 聡先生</t>
-  </si>
-  <si>
-    <t>教務</t>
-    <rPh sb="0" eb="2">
-      <t>キョウム</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>村上和子先生</t>
@@ -227,6 +208,91 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カズコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北村　陽典</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>三浦　康寛</t>
+    <rPh sb="0" eb="2">
+      <t>ミウラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤスヒロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>川越さん</t>
+    <rPh sb="0" eb="2">
+      <t>カワゴエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>長田さん</t>
+    <rPh sb="0" eb="2">
+      <t>ナガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>竹内さん</t>
+    <rPh sb="0" eb="2">
+      <t>タケウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>吉田（妻）</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>松崎（妻子）</t>
+    <rPh sb="0" eb="2">
+      <t>マツザキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>武市さん</t>
+    <rPh sb="0" eb="2">
+      <t>タケチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四宮先生</t>
+    <rPh sb="0" eb="2">
+      <t>シノミヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原田　崇司</t>
+    <rPh sb="0" eb="2">
+      <t>ハラダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -330,13 +396,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -345,7 +411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,16 +427,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,302 +762,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06AB876-86F6-46A0-A4BB-F2115CE82C1F}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.08203125" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
+      <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/Ver4/09/野外炊飯.xlsx
+++ b/Ver4/09/野外炊飯.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{3C1D4405-0A5B-476A-ACEC-D4EA651EE313}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{F3195712-FE7A-43E4-83FF-3058902CB0DB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1314EF96-FE98-4E4D-89E2-7C9C3512298E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8360" yWindow="240" windowWidth="8380" windowHeight="9990" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
+    <workbookView xWindow="8360" yWindow="460" windowWidth="13200" windowHeight="13000" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -284,14 +278,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>原田　崇司</t>
+    <t>原田 崇司先生</t>
     <rPh sb="0" eb="2">
       <t>ハラダ</t>
     </rPh>
-    <rPh sb="3" eb="4">
+    <rPh sb="9" eb="10">
       <t>タカシ</t>
     </rPh>
-    <rPh sb="4" eb="5">
+    <rPh sb="10" eb="11">
       <t>ツカサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -301,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +345,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="HGS創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS Mincho"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -411,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,6 +455,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,18 +779,18 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.08203125" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="19" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" ht="19" thickBot="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -808,7 +822,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:7" ht="19" thickBot="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -825,7 +839,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" ht="19" thickBot="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -842,7 +856,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:7" ht="19" thickBot="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -859,7 +873,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7" ht="19" thickBot="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -876,7 +890,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:7" ht="19" thickBot="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -893,7 +907,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:7" ht="19" thickBot="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -910,7 +924,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:7" ht="19" thickBot="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -927,7 +941,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:7" ht="19" thickBot="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -944,7 +958,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:7" ht="19" thickBot="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -961,11 +975,11 @@
       <c r="F11" s="6"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:7" ht="19" thickBot="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -978,14 +992,14 @@
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:7" ht="19" thickBot="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -995,7 +1009,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:7" ht="19" thickBot="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1012,31 +1026,31 @@
       <c r="F14" s="6"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:7" ht="19" thickBot="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:7" ht="19" thickBot="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1046,14 +1060,14 @@
       <c r="F16" s="7"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:7" ht="19" thickBot="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1063,7 +1077,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:7" ht="19" thickBot="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1080,7 +1094,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:7" ht="19" thickBot="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1089,7 +1103,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>55</v>
@@ -1097,7 +1111,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:7" ht="19" thickBot="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1114,7 +1128,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:7" ht="19" thickBot="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>

--- a/Ver4/09/野外炊飯.xlsx
+++ b/Ver4/09/野外炊飯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1314EF96-FE98-4E4D-89E2-7C9C3512298E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D70F39DF-85D8-264F-9D3D-F9F438A52420}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8360" yWindow="460" windowWidth="13200" windowHeight="13000" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -261,13 +262,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>武市さん</t>
-    <rPh sb="0" eb="2">
-      <t>タケチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>四宮先生</t>
     <rPh sb="0" eb="2">
       <t>シノミヤ</t>
@@ -280,13 +274,14 @@
   <si>
     <t>原田 崇司先生</t>
     <rPh sb="0" eb="2">
-      <t>ハラダ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タカシ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツカサ</t>
+      <t>ハラダタカシツカサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入交さん</t>
+    <rPh sb="0" eb="1">
+      <t>イr</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -779,7 +774,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -983,7 +978,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>47</v>
@@ -1000,7 +995,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>28</v>
@@ -1033,8 +1028,8 @@
       <c r="B15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>61</v>
+      <c r="C15" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>43</v>

--- a/Ver4/09/野外炊飯.xlsx
+++ b/Ver4/09/野外炊飯.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D70F39DF-85D8-264F-9D3D-F9F438A52420}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC8A10E-C6B0-FC4B-A376-4F34F59212D7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8360" yWindow="460" windowWidth="13200" windowHeight="13000" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
+    <workbookView xWindow="8360" yWindow="460" windowWidth="13200" windowHeight="14220" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,9 +91,6 @@
     <t>吉田 真一先生</t>
   </si>
   <si>
-    <t>高田 喜郎先生</t>
-  </si>
-  <si>
     <t>伊崎　侑真</t>
   </si>
   <si>
@@ -195,16 +191,6 @@
   </si>
   <si>
     <t>岩村 聡先生</t>
-  </si>
-  <si>
-    <t>村上和子先生</t>
-    <rPh sb="0" eb="2">
-      <t>ムラカミ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カズコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>北村　陽典</t>
@@ -221,68 +207,34 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>川越さん</t>
-    <rPh sb="0" eb="2">
-      <t>カワゴエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>長田さん</t>
-    <rPh sb="0" eb="2">
-      <t>ナガタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <t>川越 智予さん</t>
+  </si>
+  <si>
+    <t>四宮 有貴先生</t>
+  </si>
+  <si>
+    <t>長田 ゆうさん</t>
+  </si>
+  <si>
+    <t>原田 崇司先生</t>
+  </si>
+  <si>
+    <t>村上 和子先生</t>
   </si>
   <si>
     <t>竹内さん</t>
-    <rPh sb="0" eb="2">
-      <t>タケウチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>吉田（妻）</t>
-    <rPh sb="0" eb="2">
-      <t>ヨシダ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ツマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>松崎（妻子）</t>
-    <rPh sb="0" eb="2">
-      <t>マツザキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>四宮先生</t>
-    <rPh sb="0" eb="2">
-      <t>シノミヤ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>原田 崇司先生</t>
-    <rPh sb="0" eb="2">
-      <t>ハラダタカシツカサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入交さん</t>
-    <rPh sb="0" eb="1">
-      <t>イr</t>
-    </rPh>
+  </si>
+  <si>
+    <t>吉田 亜矢子さん</t>
+  </si>
+  <si>
+    <t>高田 喜朗先生</t>
+  </si>
+  <si>
+    <t>松崎 梢さん</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -774,7 +726,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -809,10 +761,10 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
@@ -826,10 +778,10 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
@@ -843,10 +795,10 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
@@ -860,10 +812,10 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
@@ -877,10 +829,10 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
@@ -894,10 +846,10 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="8"/>
@@ -911,10 +863,10 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
@@ -928,10 +880,10 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="10"/>
@@ -945,10 +897,10 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
@@ -962,10 +914,10 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="8"/>
@@ -975,13 +927,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="7"/>
@@ -992,13 +944,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
@@ -1009,14 +961,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="8"/>
@@ -1026,13 +978,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
@@ -1046,10 +998,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="7"/>
@@ -1063,10 +1015,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="7"/>
@@ -1081,10 +1033,10 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
@@ -1094,14 +1046,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="8"/>
@@ -1111,14 +1063,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
@@ -1132,10 +1084,10 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="8"/>

--- a/Ver4/09/野外炊飯.xlsx
+++ b/Ver4/09/野外炊飯.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/09/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC8A10E-C6B0-FC4B-A376-4F34F59212D7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{2FC8A10E-C6B0-FC4B-A376-4F34F59212D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{79613A6C-11F7-46E5-A511-3365100F44C2}"/>
   <bookViews>
-    <workbookView xWindow="8360" yWindow="460" windowWidth="13200" windowHeight="14220" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
+    <workbookView xWindow="9030" yWindow="460" windowWidth="8800" windowHeight="9990" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="64">
   <si>
     <t>班</t>
     <rPh sb="0" eb="1">
@@ -222,12 +222,6 @@
     <t>村上 和子先生</t>
   </si>
   <si>
-    <t>竹内さん</t>
-  </si>
-  <si>
-    <t>入交さん</t>
-  </si>
-  <si>
     <t>吉田 亜矢子さん</t>
   </si>
   <si>
@@ -235,6 +229,23 @@
   </si>
   <si>
     <t>松崎 梢さん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>竹内 優希さん</t>
+    <rPh sb="3" eb="5">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入交 那津美さん</t>
+    <rPh sb="3" eb="5">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -242,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,20 +303,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="HGS創英ﾌﾟﾚｾﾞﾝｽEB"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="MS Mincho"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="MS Mincho"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -366,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,29 +382,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,11 +716,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06AB876-86F6-46A0-A4BB-F2115CE82C1F}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -737,7 +728,7 @@
     <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" thickBot="1">
+    <row r="1" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19" thickBot="1">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -769,7 +760,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="19" thickBot="1">
+    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -786,7 +777,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="19" thickBot="1">
+    <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -803,7 +794,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="19" thickBot="1">
+    <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -820,7 +811,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="19" thickBot="1">
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -837,7 +828,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="19" thickBot="1">
+    <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -854,7 +845,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="19" thickBot="1">
+    <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -871,7 +862,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="19" thickBot="1">
+    <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -888,7 +879,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="19" thickBot="1">
+    <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -905,7 +896,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="19" thickBot="1">
+    <row r="11" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -922,11 +913,11 @@
       <c r="F11" s="6"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="19" thickBot="1">
+    <row r="12" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -939,14 +930,14 @@
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="19" thickBot="1">
+    <row r="13" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -956,7 +947,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="19" thickBot="1">
+    <row r="14" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -973,15 +964,15 @@
       <c r="F14" s="6"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="19" thickBot="1">
+    <row r="15" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>60</v>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>42</v>
@@ -990,15 +981,15 @@
       <c r="F15" s="6"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="19" thickBot="1">
+    <row r="16" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>63</v>
+      <c r="C16" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>47</v>
@@ -1007,7 +998,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="19" thickBot="1">
+    <row r="17" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1015,7 +1006,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>48</v>
@@ -1024,7 +1015,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="19" thickBot="1">
+    <row r="18" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1041,7 +1032,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="19" thickBot="1">
+    <row r="19" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1058,12 +1049,12 @@
       <c r="F19" s="6"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="19" thickBot="1">
+    <row r="20" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="3" t="s">
@@ -1075,7 +1066,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="19" thickBot="1">
+    <row r="21" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="2">
         <v>20</v>
       </c>

--- a/Ver4/09/野外炊飯.xlsx
+++ b/Ver4/09/野外炊飯.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{2FC8A10E-C6B0-FC4B-A376-4F34F59212D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{79613A6C-11F7-46E5-A511-3365100F44C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96096FD-CE8C-F94D-8C01-B9C3A63F202C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="460" windowWidth="8800" windowHeight="9990" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
+    <workbookView xWindow="6260" yWindow="460" windowWidth="12780" windowHeight="13040" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>班</t>
     <rPh sb="0" eb="1">
@@ -253,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,11 +716,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06AB876-86F6-46A0-A4BB-F2115CE82C1F}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -728,7 +728,7 @@
     <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="19" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" ht="19" thickBot="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:7" ht="19" thickBot="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" ht="19" thickBot="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -794,7 +794,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:7" ht="19" thickBot="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7" ht="19" thickBot="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:7" ht="19" thickBot="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -843,9 +843,8 @@
         <v>37</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="8" spans="1:7" ht="19" thickBot="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -862,7 +861,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:7" ht="19" thickBot="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -874,12 +873,12 @@
         <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:7" ht="19" thickBot="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -896,7 +895,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:7" ht="19" thickBot="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -913,7 +912,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:7" ht="19" thickBot="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -930,7 +929,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:7" ht="19" thickBot="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -947,7 +946,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:7" ht="19" thickBot="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -959,12 +958,12 @@
         <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:7" ht="19" thickBot="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -981,7 +980,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:7" ht="19" thickBot="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -998,7 +997,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:7" ht="19" thickBot="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1015,7 +1014,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:7" ht="19" thickBot="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1032,7 +1031,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:7" ht="19" thickBot="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1049,7 +1048,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:7" ht="19" thickBot="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1066,7 +1065,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:7" ht="19" thickBot="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>

--- a/Ver4/09/野外炊飯.xlsx
+++ b/Ver4/09/野外炊飯.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/09/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96096FD-CE8C-F94D-8C01-B9C3A63F202C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{985310EE-0293-4148-AA62-95E18280279F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{38AE5BDD-493F-4F5C-867D-1260A5FA18BB}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="460" windowWidth="12780" windowHeight="13040" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>班</t>
     <rPh sb="0" eb="1">
@@ -248,12 +248,29 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>小野　歩</t>
+    <rPh sb="0" eb="2">
+      <t>オノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アユ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>藤田　竜貴</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +320,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="HGS創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -363,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,6 +422,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,10 +743,10 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -728,7 +754,7 @@
     <col min="4" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" thickBot="1">
+    <row r="1" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19" thickBot="1">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -760,7 +786,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="19" thickBot="1">
+    <row r="3" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -777,7 +803,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="19" thickBot="1">
+    <row r="4" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -794,7 +820,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="19" thickBot="1">
+    <row r="5" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -811,7 +837,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="19" thickBot="1">
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -828,7 +854,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="19" thickBot="1">
+    <row r="7" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -844,7 +870,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="19" thickBot="1">
+    <row r="8" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -861,7 +887,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="19" thickBot="1">
+    <row r="9" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -878,7 +904,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="19" thickBot="1">
+    <row r="10" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -895,7 +921,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="19" thickBot="1">
+    <row r="11" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -912,7 +938,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="19" thickBot="1">
+    <row r="12" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -929,7 +955,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" ht="19" thickBot="1">
+    <row r="13" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -942,11 +968,13 @@
       <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="19" thickBot="1">
+    <row r="14" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -963,7 +991,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="19" thickBot="1">
+    <row r="15" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -976,11 +1004,13 @@
       <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="19" thickBot="1">
+    <row r="16" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -997,7 +1027,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="19" thickBot="1">
+    <row r="17" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1014,7 +1044,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="19" thickBot="1">
+    <row r="18" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1031,7 +1061,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="19" thickBot="1">
+    <row r="19" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1048,7 +1078,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="19" thickBot="1">
+    <row r="20" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1065,7 +1095,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="19" thickBot="1">
+    <row r="21" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="2">
         <v>20</v>
       </c>

--- a/Ver4/09/野外炊飯.xlsx
+++ b/Ver4/09/野外炊飯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="114_{985310EE-0293-4148-AA62-95E18280279F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{38AE5BDD-493F-4F5C-867D-1260A5FA18BB}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="114_{985310EE-0293-4148-AA62-95E18280279F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B6A16315-2BE2-40BE-BDED-907C29E0134F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>班</t>
     <rPh sb="0" eb="1">
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>川越 智予さん</t>
-  </si>
-  <si>
-    <t>四宮 有貴先生</t>
   </si>
   <si>
     <t>長田 ゆうさん</t>
@@ -742,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06AB876-86F6-46A0-A4BB-F2115CE82C1F}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -946,7 +943,7 @@
         <v>54</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>46</v>
@@ -960,16 +957,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="8"/>
@@ -979,7 +974,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="4" t="s">
@@ -996,16 +991,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="8"/>
@@ -1018,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>47</v>
@@ -1035,7 +1030,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>48</v>
@@ -1083,7 +1078,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="3" t="s">

--- a/Ver4/09/野外炊飯.xlsx
+++ b/Ver4/09/野外炊飯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="114_{985310EE-0293-4148-AA62-95E18280279F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B6A16315-2BE2-40BE-BDED-907C29E0134F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA589CE-C026-48C3-AB13-03A9EA78886F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B15EB7D5-E83D-4F8A-BEFC-02F762FFE414}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>班</t>
     <rPh sb="0" eb="1">
@@ -259,6 +259,19 @@
     <t>藤田　竜貴</t>
     <rPh sb="4" eb="5">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 井形 元彦先生</t>
+    <rPh sb="1" eb="3">
+      <t>イガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モトヒコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -739,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06AB876-86F6-46A0-A4BB-F2115CE82C1F}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1046,7 +1059,9 @@
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
